--- a/documents/04-Analyse.xlsx
+++ b/documents/04-Analyse.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohenberg/project/Masterthesis/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831BDBB-8AD7-A84D-8C4B-7288FBE06C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0E9F3-5896-834C-84C3-3152040F5A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{542D3738-8151-B74A-991A-6C4FC1990955}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{542D3738-8151-B74A-991A-6C4FC1990955}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="2" r:id="rId1"/>
     <sheet name="summary" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="230">
   <si>
     <t>Aufteilung in internal, external und construct validity</t>
   </si>
@@ -565,9 +565,6 @@
     <t>Programmiersprachen</t>
   </si>
   <si>
-    <t>industrielle Teams</t>
-  </si>
-  <si>
     <t>Crowdtesting Platform</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>other applications and grammar</t>
   </si>
   <si>
-    <t>large variety of applications and invalid inputs</t>
-  </si>
-  <si>
     <t>Kontext (S: Conclusion, P: Future Work)</t>
   </si>
   <si>
@@ -776,13 +770,85 @@
   </si>
   <si>
     <t>Zweck</t>
+  </si>
+  <si>
+    <t>Verweis auf future work</t>
+  </si>
+  <si>
+    <t>selection of apps</t>
+  </si>
+  <si>
+    <t>active analyzer and real world programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> web testing, computer vision and information retrieval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use case mining, crowd-sourced use cases acquisition, and model </t>
+  </si>
+  <si>
+    <t>checking combos (ML applications)</t>
+  </si>
+  <si>
+    <t>X + Conclusion Validity - Construct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X  </t>
+  </si>
+  <si>
+    <t>OSS datasets with Puppet scripts</t>
+  </si>
+  <si>
+    <t>Kontexte (Z: Details S: Threats to Validity)</t>
+  </si>
+  <si>
+    <t>Kontexte (Z: Details S: Future Work)</t>
+  </si>
+  <si>
+    <t>across languages</t>
+  </si>
+  <si>
+    <t>new analysis</t>
+  </si>
+  <si>
+    <t>Android apps</t>
+  </si>
+  <si>
+    <t>Threats nicht vorhanden, aber</t>
+  </si>
+  <si>
+    <t>Limitations: 4</t>
+  </si>
+  <si>
+    <t>Future Work: 4</t>
+  </si>
+  <si>
+    <t>Limitations + Future Work: 2</t>
+  </si>
+  <si>
+    <t>Threats vorhanden</t>
+  </si>
+  <si>
+    <t>Limitations + Future Work: 6</t>
+  </si>
+  <si>
+    <t>Future Work: 12</t>
+  </si>
+  <si>
+    <t>Limitations: 3</t>
+  </si>
+  <si>
+    <t>Kontexte bgzl Verallgemeinbarkeit in ___ Paper gefunden</t>
+  </si>
+  <si>
+    <t>Entwickler, industrielle Teams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -810,17 +876,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -941,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -986,7 +1059,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1024,6 +1097,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,9 +1470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493611EB-B36F-BC49-9EE1-00D6FD60C398}">
   <dimension ref="A1:BH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="137" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB28" sqref="AB28:AB37"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1674,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>18</v>
@@ -1620,11 +1695,11 @@
         <v>18</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O5">
-        <f>COUNTA(B5:N5)-2</f>
-        <v>9</v>
+        <f>COUNTA(B5:N5)-1</f>
+        <v>10</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="3"/>
@@ -1829,14 +1904,14 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
@@ -1912,14 +1987,14 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13">
@@ -1988,7 +2063,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="8"/>
@@ -2127,36 +2202,36 @@
     <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
@@ -2176,7 +2251,7 @@
     <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -2186,23 +2261,23 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L20" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="N20" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>144</v>
       </c>
       <c r="O20">
         <f t="shared" ref="O20" si="1">COUNTA(B20:N20)</f>
@@ -2226,7 +2301,7 @@
     <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
@@ -2239,7 +2314,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3658,46 +3733,46 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA42" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF42" s="2"/>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" t="s">
         <v>152</v>
       </c>
-      <c r="J43" t="s">
-        <v>153</v>
-      </c>
       <c r="L43" t="s">
+        <v>168</v>
+      </c>
+      <c r="N43" t="s">
+        <v>169</v>
+      </c>
+      <c r="R43" t="s">
+        <v>163</v>
+      </c>
+      <c r="V43" t="s">
         <v>170</v>
       </c>
-      <c r="N43" t="s">
-        <v>171</v>
-      </c>
-      <c r="R43" t="s">
-        <v>164</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="X43" t="s">
         <v>172</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z43" t="s">
         <v>174</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>176</v>
       </c>
       <c r="AA43" s="30">
         <f>COUNTA(B43:Z43)</f>
@@ -3716,13 +3791,13 @@
         <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K44" t="s">
         <v>15</v>
@@ -3756,9 +3831,6 @@
       </c>
       <c r="F45" t="s">
         <v>28</v>
-      </c>
-      <c r="J45" t="s">
-        <v>169</v>
       </c>
       <c r="K45" t="s">
         <v>15</v>
@@ -3812,13 +3884,13 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M47" t="s">
         <v>15</v>
       </c>
       <c r="X47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y47" t="s">
         <v>15</v>
@@ -3916,13 +3988,17 @@
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
+      <c r="F55" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="G55" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -3941,7 +4017,7 @@
       </c>
       <c r="S55">
         <f>COUNTA(B55:R55)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W55" s="16"/>
       <c r="X55" s="34"/>
@@ -3953,12 +4029,16 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="24"/>
       <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
+      <c r="I56" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="J56" s="25"/>
       <c r="K56" s="8" t="s">
         <v>18</v>
@@ -3972,7 +4052,7 @@
       <c r="R56" s="8"/>
       <c r="S56">
         <f>COUNTA(B56:R56)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W56" s="16"/>
       <c r="X56" s="35"/>
@@ -3983,7 +4063,9 @@
         <v>2</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -4001,7 +4083,7 @@
       <c r="R57" s="8"/>
       <c r="S57">
         <f t="shared" ref="S57:S70" si="3">COUNTA(B57:R57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="16"/>
       <c r="X57" s="34"/>
@@ -4014,16 +4096,26 @@
       <c r="B58" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
+      <c r="C58" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>18</v>
+      </c>
       <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="F58" s="41" t="s">
+        <v>213</v>
+      </c>
       <c r="G58" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
+      <c r="I58" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>18</v>
+      </c>
       <c r="K58" s="14" t="s">
         <v>18</v>
       </c>
@@ -4046,7 +4138,7 @@
       </c>
       <c r="S58" s="15">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W58" s="16"/>
       <c r="X58" s="35"/>
@@ -4059,10 +4151,14 @@
       <c r="B59" s="11"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="F59" s="19"/>
       <c r="G59" s="43"/>
-      <c r="H59" s="19"/>
+      <c r="H59" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="11"/>
@@ -4079,7 +4175,7 @@
       <c r="R59" s="11"/>
       <c r="S59" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W59" s="16"/>
       <c r="X59" s="34"/>
@@ -4090,7 +4186,9 @@
         <v>3</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="25"/>
+      <c r="C60" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
@@ -4110,7 +4208,7 @@
       <c r="R60" s="8"/>
       <c r="S60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W60" s="16"/>
       <c r="X60" s="3"/>
@@ -4121,8 +4219,12 @@
         <v>4</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
       <c r="G61" s="24"/>
@@ -4147,7 +4249,7 @@
       <c r="R61" s="8"/>
       <c r="S61">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W61" s="16"/>
       <c r="X61" s="3"/>
@@ -4190,12 +4292,16 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="D63" s="25" t="s">
+        <v>206</v>
+      </c>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="24"/>
       <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="I63" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="J63" s="25"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -4209,7 +4315,7 @@
       </c>
       <c r="S63" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W63" s="16"/>
       <c r="X63" s="34"/>
@@ -4220,35 +4326,41 @@
         <v>22</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="E64" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="F64" s="19"/>
       <c r="G64" s="43"/>
-      <c r="H64" s="19"/>
+      <c r="H64" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
+      <c r="J64" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="K64" s="11"/>
       <c r="L64" s="11" t="s">
         <v>80</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S64" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W64" s="16"/>
       <c r="X64" s="34"/>
@@ -4292,8 +4404,12 @@
         <v>5</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="C66" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>207</v>
+      </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
       <c r="G66" s="24"/>
@@ -4304,17 +4420,17 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W66" s="16"/>
       <c r="X66" s="34"/>
@@ -4334,7 +4450,9 @@
       </c>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+      <c r="J67" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -4345,7 +4463,7 @@
       <c r="R67" s="8"/>
       <c r="S67">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67" s="16"/>
       <c r="X67" s="34"/>
@@ -4356,7 +4474,9 @@
         <v>26</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="25"/>
+      <c r="C68" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
@@ -4365,20 +4485,20 @@
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
       <c r="K68" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W68" s="16"/>
       <c r="X68" s="16"/>
@@ -4389,7 +4509,9 @@
         <v>38</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="25"/>
+      <c r="C69" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -4411,7 +4533,7 @@
       <c r="R69" s="8"/>
       <c r="S69">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
@@ -4442,139 +4564,150 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" t="s">
+        <v>152</v>
       </c>
       <c r="G72" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" t="s">
         <v>152</v>
       </c>
       <c r="L72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S72" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="7"/>
-      <c r="X72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="V72" s="4"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" t="s">
+        <v>214</v>
       </c>
       <c r="G73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I73" t="s">
+        <v>219</v>
+      </c>
+      <c r="L73" t="s">
         <v>188</v>
-      </c>
-      <c r="L73" t="s">
-        <v>190</v>
       </c>
       <c r="M73" t="s">
         <v>15</v>
       </c>
       <c r="N73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S73">
         <f t="shared" ref="S73" si="4">COUNTA(B73:R73)</f>
-        <v>6</v>
-      </c>
-      <c r="V73" s="33"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y73" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z73" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA73" s="33" t="s">
-        <v>181</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="V73" s="4"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C74" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" t="s">
+        <v>217</v>
+      </c>
       <c r="L74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M74" t="s">
         <v>15</v>
       </c>
       <c r="N74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S74" t="s">
         <v>15</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="W74" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="X74" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="V75" s="2"/>
-      <c r="W75" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="46"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>185</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
       <c r="R76" t="s">
-        <v>202</v>
-      </c>
-      <c r="V76" s="2"/>
-      <c r="W76" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="X76" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="V76" s="4"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I77" s="34"/>
@@ -4582,16 +4715,14 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="R77" t="s">
-        <v>203</v>
-      </c>
-      <c r="V77" s="2"/>
-      <c r="W77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="V77" s="4"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I78" s="34"/>
@@ -4599,8 +4730,14 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="R78" t="s">
-        <v>204</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I79" s="34"/>
@@ -4901,18 +5038,18 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F99" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F100" s="30">
         <f t="shared" ref="F100" si="6">COUNTA(B100:E100)</f>
@@ -4944,6 +5081,7 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4953,7 +5091,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4982,7 +5120,7 @@
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K1" s="6"/>
     </row>
@@ -4992,21 +5130,21 @@
       </c>
       <c r="B2" s="1">
         <f>'by paper'!O2+'by paper'!AA25+'by paper'!S55+'by paper'!F82</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="40"/>
       <c r="H2" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5015,13 +5153,13 @@
       </c>
       <c r="B3" s="1">
         <f>'by paper'!O3+'by paper'!AA26+'by paper'!S56+'by paper'!F83</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H3" s="2">
         <v>6</v>
@@ -5038,7 +5176,11 @@
       </c>
       <c r="B4" s="1">
         <f>'by paper'!O4+'by paper'!AA27+'by paper'!S57+'by paper'!F84</f>
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B2+B3+B4</f>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
@@ -5059,11 +5201,15 @@
       </c>
       <c r="B5" s="1">
         <f>'by paper'!O5+'by paper'!AA28+'by paper'!S58+'by paper'!F85</f>
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5+B6</f>
+        <v>59</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -5080,7 +5226,10 @@
       </c>
       <c r="B6" s="1">
         <f>'by paper'!O6+'by paper'!AA29+'by paper'!S59+'by paper'!F86</f>
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
@@ -5099,7 +5248,10 @@
       </c>
       <c r="B7" s="1">
         <f>'by paper'!O7+'by paper'!AA30+'by paper'!S60+'by paper'!F87</f>
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -5108,14 +5260,17 @@
       </c>
       <c r="B8" s="1">
         <f>'by paper'!O8+'by paper'!AA31+'by paper'!S61+'by paper'!F88</f>
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -5127,19 +5282,22 @@
         <f>'by paper'!O9+'by paper'!AA32+'by paper'!S62+'by paper'!F89</f>
         <v>3</v>
       </c>
+      <c r="D9" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="F9" s="33"/>
       <c r="G9" s="40"/>
       <c r="H9" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5148,13 +5306,13 @@
       </c>
       <c r="B10" s="1">
         <f>'by paper'!O10+'by paper'!AA33+'by paper'!S63+'by paper'!F90</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -5176,7 +5334,10 @@
       </c>
       <c r="B11" s="1">
         <f>'by paper'!O11+'by paper'!AA34+'by paper'!S64+'by paper'!F91</f>
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
@@ -5202,9 +5363,12 @@
         <f>'by paper'!O12+'by paper'!AA35+'by paper'!S65+'by paper'!F92</f>
         <v>8</v>
       </c>
+      <c r="D12" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -5227,7 +5391,10 @@
       </c>
       <c r="B13" s="1">
         <f>'by paper'!O13+'by paper'!AA36+'by paper'!S66+'by paper'!F93</f>
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
@@ -5248,7 +5415,10 @@
       </c>
       <c r="B14" s="1">
         <f>'by paper'!O14+'by paper'!AA37+'by paper'!S67+'by paper'!F94</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5257,14 +5427,14 @@
       </c>
       <c r="B15" s="1">
         <f>'by paper'!O15+'by paper'!AA38+'by paper'!S68+'by paper'!F95</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -5274,21 +5444,21 @@
       </c>
       <c r="B16" s="1">
         <f>'by paper'!O16+'by paper'!AA39+'by paper'!S69+'by paper'!F96</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="40"/>
       <c r="H16" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5300,18 +5470,18 @@
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="H17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="2">
         <f>SUM(H17:K17)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5333,14 +5503,18 @@
       </c>
       <c r="B19" s="1">
         <f>'by paper'!O20+'by paper'!AA43+'by paper'!S73+'by paper'!F100</f>
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <f>B19/0.59</f>
+        <v>57.627118644067799</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -5351,10 +5525,21 @@
       <c r="K19" s="6"/>
       <c r="L19" s="2">
         <f>SUM(H19:K19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B19-9</f>
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <f>B20/0.59</f>
+        <v>42.372881355932208</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="7" t="s">
         <v>4</v>
@@ -5380,7 +5565,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -5388,27 +5573,27 @@
       <c r="F23" s="33"/>
       <c r="G23" s="40"/>
       <c r="H23" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
@@ -5421,7 +5606,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25"/>
       <c r="C25" s="16"/>
@@ -5443,7 +5628,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26"/>
       <c r="C26" s="16"/>
@@ -5451,7 +5636,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H26" s="2"/>
       <c r="K26" s="6"/>
@@ -5462,7 +5647,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -5477,52 +5662,52 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" s="2">
         <f>SUM(L3:L27)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E30" s="40"/>
       <c r="F30" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F31" s="2">
         <f>H3+H10+H17+H24</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H31" s="35">
         <f>SUM(H3:H27)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I31" s="35">
         <f>SUM(I3:I27)</f>
@@ -5538,7 +5723,7 @@
       </c>
       <c r="L31" s="2">
         <f>SUM(H31:K31)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5559,11 +5744,11 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F33" s="2">
         <f>H5+H12+H19+H26</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -5593,7 +5778,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4">
         <f>SUM(F31:F34)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
@@ -5865,6 +6050,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/04-Analyse.xlsx
+++ b/documents/04-Analyse.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohenberg/project/Masterthesis/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F6784F-9E72-A342-8FAA-0C1117488713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A141739-75D6-684B-97A1-35C08B0C44F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{542D3738-8151-B74A-991A-6C4FC1990955}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{542D3738-8151-B74A-991A-6C4FC1990955}"/>
   </bookViews>
   <sheets>
     <sheet name="Charakterisierung" sheetId="4" r:id="rId1"/>
-    <sheet name="Verallgemeinbarkeit - summary" sheetId="1" r:id="rId2"/>
-    <sheet name="Verallgemeinbarkeit" sheetId="2" r:id="rId3"/>
+    <sheet name="Verallgemeinbarkeit" sheetId="2" r:id="rId2"/>
+    <sheet name="Verallgemeinbarkeit - summary" sheetId="1" r:id="rId3"/>
     <sheet name="Thema" sheetId="3" r:id="rId4"/>
     <sheet name="Thema - summary" sheetId="5" r:id="rId5"/>
+    <sheet name="TODO" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,35 +39,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={5B101D75-6D21-A848-BE7F-A610A2EE6121}</author>
-    <author>tc={9E8EA350-E65A-9C44-8B97-FC71CA2367EB}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5B101D75-6D21-A848-BE7F-A610A2EE6121}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ? = keine Aufteilung, unklar welche validity es ist
-</t>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{9E8EA350-E65A-9C44-8B97-FC71CA2367EB}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Könnte auch in anderen Sektionen stecken
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={934DF27E-5694-3F46-8C67-CF9B06C42435}</author>
@@ -154,8 +126,37 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5B101D75-6D21-A848-BE7F-A610A2EE6121}</author>
+    <author>tc={9E8EA350-E65A-9C44-8B97-FC71CA2367EB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5B101D75-6D21-A848-BE7F-A610A2EE6121}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ? = keine Aufteilung, unklar welche validity es ist
+</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{9E8EA350-E65A-9C44-8B97-FC71CA2367EB}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Könnte auch in anderen Sektionen stecken
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="860">
   <si>
     <t>Aufteilung in internal, external und construct validity</t>
   </si>
@@ -2607,15 +2608,6 @@
     <t>(b086)</t>
   </si>
   <si>
-    <t>a086</t>
-  </si>
-  <si>
-    <t>(a086)</t>
-  </si>
-  <si>
-    <t>_fettgedruckte Kontexte in Thema analysieren</t>
-  </si>
-  <si>
     <t>_grau: Kontexte (!=Verallgemeinbarkeit) hier hinzufügen</t>
   </si>
   <si>
@@ -2625,20 +2617,143 @@
     <t>_grün: 9Paper lesen, Charakterisierung</t>
   </si>
   <si>
-    <t>_grün: Kontexte in Thema und hier pflegen</t>
-  </si>
-  <si>
     <t>_interessant Paper für Thesis: b110, a409</t>
   </si>
   <si>
     <t>_mehr Zwecke? Anwendung, Aufbau</t>
+  </si>
+  <si>
+    <t>_implizite Kontexte in Thema analysieren (a075, b459, b061)</t>
+  </si>
+  <si>
+    <t>_floating point programs</t>
+  </si>
+  <si>
+    <t>(b261)</t>
+  </si>
+  <si>
+    <t>automatic test input generation</t>
+  </si>
+  <si>
+    <t>(b410)</t>
+  </si>
+  <si>
+    <t>fault detection</t>
+  </si>
+  <si>
+    <t>blockchain platform</t>
+  </si>
+  <si>
+    <t>Solidity (blockchain)</t>
+  </si>
+  <si>
+    <t>blockchain applications</t>
+  </si>
+  <si>
+    <t>(a542)</t>
+  </si>
+  <si>
+    <t>debugging inputs</t>
+  </si>
+  <si>
+    <t>_data corruption</t>
+  </si>
+  <si>
+    <t>_recovering and repairing data</t>
+  </si>
+  <si>
+    <t>(a075)</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>applications of SMT solvers</t>
+  </si>
+  <si>
+    <t>(a765)</t>
+  </si>
+  <si>
+    <t>(Message Parsing Interfaces) MPI programs with both non-blocking and non-deterministic operation</t>
+  </si>
+  <si>
+    <t>b28</t>
+  </si>
+  <si>
+    <t>(a271)</t>
+  </si>
+  <si>
+    <t>unsafe languages</t>
+  </si>
+  <si>
+    <t>(a678)</t>
+  </si>
+  <si>
+    <t>Recurrent Neural Network</t>
+  </si>
+  <si>
+    <t>(a986)</t>
+  </si>
+  <si>
+    <t>b112</t>
+  </si>
+  <si>
+    <t>RRN: processing textual software artifact</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>(b112)</t>
+  </si>
+  <si>
+    <t>DL libraries</t>
+  </si>
+  <si>
+    <t>(b509)</t>
+  </si>
+  <si>
+    <t>_large amounts of persistent data</t>
+  </si>
+  <si>
+    <t>_apps with millions of users</t>
+  </si>
+  <si>
+    <t>data science activities</t>
+  </si>
+  <si>
+    <t>_detecting faults (bugs, vulnerabilities)</t>
+  </si>
+  <si>
+    <t>(a125)</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>(a284)</t>
+  </si>
+  <si>
+    <t>realworld</t>
+  </si>
+  <si>
+    <t>top …</t>
+  </si>
+  <si>
+    <t>(b061)</t>
+  </si>
+  <si>
+    <t>_grün: Kontexte in Thema und summary pflegen</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2699,8 +2814,16 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2735,12 +2858,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2888,7 +3005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3022,7 +3139,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3343,19 +3461,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2020-12-04T11:49:18.80" personId="{C429D48C-5C8D-DE43-8BAA-797DAA8B3DBB}" id="{5B101D75-6D21-A848-BE7F-A610A2EE6121}">
-    <text xml:space="preserve">? = keine Aufteilung, unklar welche validity es ist
-</text>
-  </threadedComment>
-  <threadedComment ref="A11" dT="2020-12-04T10:37:30.51" personId="{C429D48C-5C8D-DE43-8BAA-797DAA8B3DBB}" id="{9E8EA350-E65A-9C44-8B97-FC71CA2367EB}">
-    <text xml:space="preserve">Könnte auch in anderen Sektionen stecken
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2020-12-04T11:49:18.80" personId="{C429D48C-5C8D-DE43-8BAA-797DAA8B3DBB}" id="{934DF27E-5694-3F46-8C67-CF9B06C42435}">
     <text xml:space="preserve">? = keine Aufteilung, unklar welche validity es ist
 </text>
@@ -3390,12 +3495,25 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2020-12-04T11:49:18.80" personId="{C429D48C-5C8D-DE43-8BAA-797DAA8B3DBB}" id="{5B101D75-6D21-A848-BE7F-A610A2EE6121}">
+    <text xml:space="preserve">? = keine Aufteilung, unklar welche validity es ist
+</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2020-12-04T10:37:30.51" personId="{C429D48C-5C8D-DE43-8BAA-797DAA8B3DBB}" id="{9E8EA350-E65A-9C44-8B97-FC71CA2367EB}">
+    <text xml:space="preserve">Könnte auch in anderen Sektionen stecken
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D31FF3-5667-A241-9AF5-83568D27DC7B}">
   <dimension ref="A1:BI23"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BA29" sqref="BA29"/>
     </sheetView>
   </sheetViews>
@@ -4271,972 +4389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991AFE9-4DB8-0F4B-BA78-07B623F0F357}">
-  <dimension ref="A1:L59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="7.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1">
-        <f>Verallgemeinbarkeit!P1+Verallgemeinbarkeit!AB24+Verallgemeinbarkeit!T54+Verallgemeinbarkeit!G81</f>
-        <v>59</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>Verallgemeinbarkeit!O2+Verallgemeinbarkeit!AA25+Verallgemeinbarkeit!S55+Verallgemeinbarkeit!F82</f>
-        <v>18</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>Verallgemeinbarkeit!O3+Verallgemeinbarkeit!AA26+Verallgemeinbarkeit!S56+Verallgemeinbarkeit!F83</f>
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2">
-        <f>SUM(H3:K3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <f>Verallgemeinbarkeit!O4+Verallgemeinbarkeit!AA27+Verallgemeinbarkeit!S57+Verallgemeinbarkeit!F84</f>
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <f>B2+B3+B4</f>
-        <v>34</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="2">
-        <f>SUM(H4:K4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1">
-        <f>Verallgemeinbarkeit!O5+Verallgemeinbarkeit!AA28+Verallgemeinbarkeit!S58+Verallgemeinbarkeit!F85</f>
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <f>B5+B6</f>
-        <v>59</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="2">
-        <f>SUM(H5:K5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <f>Verallgemeinbarkeit!O6+Verallgemeinbarkeit!AA29+Verallgemeinbarkeit!S59+Verallgemeinbarkeit!F86</f>
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="2">
-        <f>SUM(H6:K6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <f>Verallgemeinbarkeit!O7+Verallgemeinbarkeit!AA30+Verallgemeinbarkeit!S60+Verallgemeinbarkeit!F87</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <f>Verallgemeinbarkeit!O8+Verallgemeinbarkeit!AA31+Verallgemeinbarkeit!S61+Verallgemeinbarkeit!F88</f>
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <f>Verallgemeinbarkeit!O9+Verallgemeinbarkeit!AA32+Verallgemeinbarkeit!S62+Verallgemeinbarkeit!F89</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1">
-        <f>Verallgemeinbarkeit!O10+Verallgemeinbarkeit!AA33+Verallgemeinbarkeit!S63+Verallgemeinbarkeit!F90</f>
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <f>SUM(H10:K10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <f>Verallgemeinbarkeit!O11+Verallgemeinbarkeit!AA34+Verallgemeinbarkeit!S64+Verallgemeinbarkeit!F91</f>
-        <v>26</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="2">
-        <f>SUM(H11:K11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1">
-        <f>Verallgemeinbarkeit!O12+Verallgemeinbarkeit!AA35+Verallgemeinbarkeit!S65+Verallgemeinbarkeit!F92</f>
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="2">
-        <f>SUM(H12:K12)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <f>Verallgemeinbarkeit!O13+Verallgemeinbarkeit!AA36+Verallgemeinbarkeit!S66+Verallgemeinbarkeit!F93</f>
-        <v>17</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="2">
-        <f>SUM(H13:K13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <f>Verallgemeinbarkeit!O14+Verallgemeinbarkeit!AA37+Verallgemeinbarkeit!S67+Verallgemeinbarkeit!F94</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <f>Verallgemeinbarkeit!O15+Verallgemeinbarkeit!AA38+Verallgemeinbarkeit!S68+Verallgemeinbarkeit!F95</f>
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1">
-        <f>Verallgemeinbarkeit!O16+Verallgemeinbarkeit!AA39+Verallgemeinbarkeit!S69+Verallgemeinbarkeit!F96</f>
-        <v>7</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <f>Verallgemeinbarkeit!O17+Verallgemeinbarkeit!AA40+Verallgemeinbarkeit!S70+Verallgemeinbarkeit!F97</f>
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="2">
-        <f>SUM(H17:K17)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="2">
-        <f>SUM(H18:K18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="1">
-        <f>Verallgemeinbarkeit!O20+Verallgemeinbarkeit!AA43+Verallgemeinbarkeit!S73+Verallgemeinbarkeit!F100</f>
-        <v>34</v>
-      </c>
-      <c r="C19" s="1">
-        <f>B19/0.59</f>
-        <v>57.627118644067799</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="2">
-        <f>SUM(H19:K19)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="1">
-        <f>B19-9</f>
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <f>B20/0.59</f>
-        <v>42.372881355932208</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="2">
-        <f>SUM(H20:K20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="2">
-        <f>SUM(H24:K24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="2">
-        <f>SUM(H25:K25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="2">
-        <f>SUM(H26:K26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="44">
-        <f>SUM(H27:K27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="2">
-        <f>SUM(L3:L27)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E29" s="7"/>
-      <c r="F29" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E30" s="39"/>
-      <c r="F30" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="2">
-        <f>H3+H10+H17+H24</f>
-        <v>15</v>
-      </c>
-      <c r="H31" s="34">
-        <f>SUM(H3:H27)</f>
-        <v>24</v>
-      </c>
-      <c r="I31" s="34">
-        <f>SUM(I3:I27)</f>
-        <v>8</v>
-      </c>
-      <c r="J31" s="34">
-        <f>SUM(J3:J27)</f>
-        <v>2</v>
-      </c>
-      <c r="K31" s="34">
-        <f>SUM(K3:K27)</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <f>SUM(H31:K31)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <f>H4+H11+H18+H25</f>
-        <v>2</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="2">
-        <f>H5+H12+H19+H26</f>
-        <v>6</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2">
-        <f>H6+H13+H20+H27</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4">
-        <f>SUM(F31:F34)</f>
-        <v>24</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="33"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493611EB-B36F-BC49-9EE1-00D6FD60C398}">
   <dimension ref="A1:BH102"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
@@ -8854,13 +8011,974 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991AFE9-4DB8-0F4B-BA78-07B623F0F357}">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <f>Verallgemeinbarkeit!P1+Verallgemeinbarkeit!AB24+Verallgemeinbarkeit!T54+Verallgemeinbarkeit!G81</f>
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Verallgemeinbarkeit!O2+Verallgemeinbarkeit!AA25+Verallgemeinbarkeit!S55+Verallgemeinbarkeit!F82</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>Verallgemeinbarkeit!O3+Verallgemeinbarkeit!AA26+Verallgemeinbarkeit!S56+Verallgemeinbarkeit!F83</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="2">
+        <f>SUM(H3:K3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>Verallgemeinbarkeit!O4+Verallgemeinbarkeit!AA27+Verallgemeinbarkeit!S57+Verallgemeinbarkeit!F84</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B2+B3+B4</f>
+        <v>34</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="2">
+        <f>SUM(H4:K4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Verallgemeinbarkeit!O5+Verallgemeinbarkeit!AA28+Verallgemeinbarkeit!S58+Verallgemeinbarkeit!F85</f>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5+B6</f>
+        <v>59</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="2">
+        <f>SUM(H5:K5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Verallgemeinbarkeit!O6+Verallgemeinbarkeit!AA29+Verallgemeinbarkeit!S59+Verallgemeinbarkeit!F86</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="2">
+        <f>SUM(H6:K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Verallgemeinbarkeit!O7+Verallgemeinbarkeit!AA30+Verallgemeinbarkeit!S60+Verallgemeinbarkeit!F87</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <f>Verallgemeinbarkeit!O8+Verallgemeinbarkeit!AA31+Verallgemeinbarkeit!S61+Verallgemeinbarkeit!F88</f>
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Verallgemeinbarkeit!O9+Verallgemeinbarkeit!AA32+Verallgemeinbarkeit!S62+Verallgemeinbarkeit!F89</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1">
+        <f>Verallgemeinbarkeit!O10+Verallgemeinbarkeit!AA33+Verallgemeinbarkeit!S63+Verallgemeinbarkeit!F90</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <f>SUM(H10:K10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <f>Verallgemeinbarkeit!O11+Verallgemeinbarkeit!AA34+Verallgemeinbarkeit!S64+Verallgemeinbarkeit!F91</f>
+        <v>26</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="2">
+        <f>SUM(H11:K11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <f>Verallgemeinbarkeit!O12+Verallgemeinbarkeit!AA35+Verallgemeinbarkeit!S65+Verallgemeinbarkeit!F92</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="2">
+        <f>SUM(H12:K12)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <f>Verallgemeinbarkeit!O13+Verallgemeinbarkeit!AA36+Verallgemeinbarkeit!S66+Verallgemeinbarkeit!F93</f>
+        <v>17</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="2">
+        <f>SUM(H13:K13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Verallgemeinbarkeit!O14+Verallgemeinbarkeit!AA37+Verallgemeinbarkeit!S67+Verallgemeinbarkeit!F94</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Verallgemeinbarkeit!O15+Verallgemeinbarkeit!AA38+Verallgemeinbarkeit!S68+Verallgemeinbarkeit!F95</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <f>Verallgemeinbarkeit!O16+Verallgemeinbarkeit!AA39+Verallgemeinbarkeit!S69+Verallgemeinbarkeit!F96</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <f>Verallgemeinbarkeit!O17+Verallgemeinbarkeit!AA40+Verallgemeinbarkeit!S70+Verallgemeinbarkeit!F97</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="2">
+        <f>SUM(H17:K17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="2">
+        <f>SUM(H18:K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1">
+        <f>Verallgemeinbarkeit!O20+Verallgemeinbarkeit!AA43+Verallgemeinbarkeit!S73+Verallgemeinbarkeit!F100</f>
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <f>B19/0.59</f>
+        <v>57.627118644067799</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="2">
+        <f>SUM(H19:K19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B19-9</f>
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <f>B20/0.59</f>
+        <v>42.372881355932208</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="2">
+        <f>SUM(H20:K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F23" s="32"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="2">
+        <f>SUM(H24:K24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="2">
+        <f>SUM(H25:K25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="2">
+        <f>SUM(H26:K26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="44">
+        <f>SUM(H27:K27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="2">
+        <f>SUM(L3:L27)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="7"/>
+      <c r="F29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="39"/>
+      <c r="F30" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="2">
+        <f>H3+H10+H17+H24</f>
+        <v>15</v>
+      </c>
+      <c r="H31" s="34">
+        <f>SUM(H3:H27)</f>
+        <v>24</v>
+      </c>
+      <c r="I31" s="34">
+        <f>SUM(I3:I27)</f>
+        <v>8</v>
+      </c>
+      <c r="J31" s="34">
+        <f>SUM(J3:J27)</f>
+        <v>2</v>
+      </c>
+      <c r="K31" s="34">
+        <f>SUM(K3:K27)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <f>SUM(H31:K31)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <f>H4+H11+H18+H25</f>
+        <v>2</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="2">
+        <f>H5+H12+H19+H26</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <f>H6+H13+H20+H27</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="4">
+        <f>SUM(F31:F34)</f>
+        <v>24</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="33"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5941F40-153B-C541-A50D-001E484D6460}">
   <dimension ref="A1:DR58"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU24" sqref="BU24:BU25"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BY29" sqref="BY28:BY29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12058,10 +12176,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ED274C-77D9-2248-9029-1D02C80942E9}">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:AM122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12072,19 +12190,25 @@
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
     <col min="22" max="22" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="V1" s="16" t="s">
         <v>786</v>
       </c>
       <c r="W1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z1" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>759</v>
       </c>
@@ -12103,8 +12227,20 @@
       <c r="W2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>794</v>
       </c>
@@ -12138,8 +12274,20 @@
       <c r="W3" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>730</v>
       </c>
@@ -12170,8 +12318,23 @@
       <c r="W4" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>731</v>
       </c>
@@ -12202,14 +12365,33 @@
       <c r="P5" t="s">
         <v>752</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>775</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z5" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>632</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="81"/>
       <c r="I6" t="s">
         <v>86</v>
       </c>
@@ -12225,14 +12407,20 @@
       <c r="P6" t="s">
         <v>752</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>776</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AF6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>732</v>
       </c>
@@ -12248,14 +12436,26 @@
       <c r="P7" t="s">
         <v>752</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>777</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z7" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>733</v>
       </c>
@@ -12274,14 +12474,26 @@
       <c r="P8" t="s">
         <v>752</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>418</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z8" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>749</v>
       </c>
@@ -12297,14 +12509,20 @@
       <c r="P9" t="s">
         <v>752</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>419</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z9" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>750</v>
       </c>
@@ -12320,23 +12538,26 @@
       <c r="E10" t="s">
         <v>112</v>
       </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
       <c r="O10" t="s">
         <v>308</v>
       </c>
       <c r="P10" t="s">
         <v>109</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>236</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>774</v>
       </c>
       <c r="V10" s="28" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -12346,10 +12567,13 @@
       <c r="P11" t="s">
         <v>87</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
         <v>416</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>774</v>
       </c>
       <c r="V11" t="s">
@@ -12359,23 +12583,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>331</v>
       </c>
       <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="O12" t="s">
-        <v>780</v>
-      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
       <c r="P12" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
         <v>417</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>774</v>
       </c>
       <c r="V12" t="s">
@@ -12384,28 +12609,32 @@
       <c r="W12" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>507</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="81" t="s">
-        <v>479</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="28" t="s">
         <v>746</v>
       </c>
       <c r="O13" t="s">
-        <v>493</v>
+        <v>780</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
         <v>458</v>
@@ -12414,39 +12643,47 @@
         <v>797</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>506</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="81" t="s">
-        <v>815</v>
-      </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
       <c r="L14" s="75" t="s">
         <v>289</v>
       </c>
       <c r="M14" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>493</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>791</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="81" t="s">
-        <v>816</v>
-      </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
       <c r="L15" t="s">
         <v>748</v>
       </c>
@@ -12459,195 +12696,432 @@
       <c r="W15" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z15" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>695</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="81" t="s">
-        <v>818</v>
-      </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
       <c r="L16" t="s">
         <v>269</v>
       </c>
       <c r="M16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>735</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>677</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>847</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>696</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>720</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="81" t="s">
-        <v>819</v>
-      </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="L17" t="s">
         <v>756</v>
       </c>
       <c r="M17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G18" s="81" t="s">
-        <v>817</v>
-      </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G19" s="81" t="s">
-        <v>820</v>
-      </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="X19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="O17" t="s">
+        <v>736</v>
+      </c>
+      <c r="P17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>678</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>847</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>721</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" t="s">
+        <v>544</v>
+      </c>
+      <c r="M18" t="s">
+        <v>827</v>
+      </c>
+      <c r="O18" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" t="s">
+        <v>742</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="W18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" t="s">
+        <v>545</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" t="s">
+        <v>742</v>
+      </c>
+      <c r="V19" t="s">
+        <v>586</v>
+      </c>
+      <c r="W19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>697</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>819</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="O20" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" t="s">
+        <v>742</v>
+      </c>
+      <c r="V20" t="s">
+        <v>588</v>
+      </c>
+      <c r="W20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>851</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>722</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>739</v>
-      </c>
-      <c r="G20" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="X20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>740</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="X21" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="O21" t="s">
+        <v>256</v>
+      </c>
+      <c r="P21" t="s">
+        <v>742</v>
+      </c>
+      <c r="V21" t="s">
+        <v>589</v>
+      </c>
+      <c r="W21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>683</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>847</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>723</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
       <c r="L22" s="28" t="s">
         <v>755</v>
       </c>
-      <c r="P22" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="S22" t="s">
-        <v>12</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="V22" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>257</v>
+      </c>
+      <c r="P22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>847</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>729</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>571</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
       <c r="L23" t="s">
         <v>335</v>
       </c>
       <c r="M23" t="s">
         <v>112</v>
       </c>
+      <c r="O23" t="s">
+        <v>258</v>
+      </c>
       <c r="P23" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>112</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="S23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="V23" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>847</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>728</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>641</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
       <c r="L24" t="s">
         <v>339</v>
       </c>
       <c r="M24" t="s">
         <v>757</v>
       </c>
+      <c r="O24" t="s">
+        <v>259</v>
+      </c>
       <c r="P24" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>112</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="S24" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="V24" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="V24" t="s">
+        <v>604</v>
+      </c>
+      <c r="W24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>686</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>676</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>855</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
       <c r="L25" t="s">
         <v>340</v>
       </c>
       <c r="M25" t="s">
         <v>757</v>
       </c>
-      <c r="P25" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>112</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>741</v>
+      <c r="V25" t="s">
+        <v>598</v>
+      </c>
+      <c r="W25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>680</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>856</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
       </c>
       <c r="L26" t="s">
         <v>341</v>
@@ -12655,31 +13129,25 @@
       <c r="M26" t="s">
         <v>757</v>
       </c>
+      <c r="O26" t="s">
+        <v>322</v>
+      </c>
       <c r="P26" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>113</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="V26" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>792</v>
+        <v>848</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>812</v>
+        <v>58</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>518</v>
@@ -12690,31 +13158,31 @@
       <c r="M27" t="s">
         <v>757</v>
       </c>
-      <c r="R27" t="s">
-        <v>504</v>
-      </c>
-      <c r="S27" t="s">
-        <v>17</v>
-      </c>
-      <c r="U27" t="s">
-        <v>492</v>
-      </c>
-      <c r="V27" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>323</v>
+      </c>
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>849</v>
       </c>
       <c r="B28" t="s">
-        <v>812</v>
-      </c>
-      <c r="H28" t="s">
-        <v>236</v>
+        <v>58</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
         <v>343</v>
@@ -12722,19 +13190,40 @@
       <c r="M28" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>324</v>
+      </c>
+      <c r="P28" t="s">
+        <v>111</v>
+      </c>
+      <c r="V28" t="s">
+        <v>702</v>
+      </c>
+      <c r="W28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>491</v>
+        <v>705</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" t="s">
-        <v>734</v>
+        <v>62</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="I29" t="s">
-        <v>743</v>
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
       </c>
       <c r="L29" t="s">
         <v>344</v>
@@ -12742,19 +13231,40 @@
       <c r="M29" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>325</v>
+      </c>
+      <c r="P29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V29" t="s">
+        <v>703</v>
+      </c>
+      <c r="W29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>687</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>708</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" t="s">
-        <v>735</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>842</v>
       </c>
       <c r="L30" t="s">
         <v>345</v>
@@ -12762,22 +13272,34 @@
       <c r="M30" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>276</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s">
-        <v>736</v>
+      <c r="O30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+      <c r="V30" t="s">
+        <v>714</v>
+      </c>
+      <c r="W30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>706</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="H31" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
       </c>
       <c r="L31" t="s">
         <v>366</v>
@@ -12785,31 +13307,25 @@
       <c r="M31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s">
-        <v>253</v>
-      </c>
+      <c r="O31" t="s">
+        <v>327</v>
+      </c>
+      <c r="P31" t="s">
+        <v>111</v>
+      </c>
+      <c r="V31" t="s">
+        <v>711</v>
+      </c>
+      <c r="W31" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF31" s="28" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
-        <v>742</v>
+        <v>59</v>
       </c>
       <c r="L32" t="s">
         <v>760</v>
@@ -12817,121 +13333,187 @@
       <c r="M32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" t="s">
-        <v>254</v>
+      <c r="O32" t="s">
+        <v>328</v>
+      </c>
+      <c r="P32" t="s">
+        <v>111</v>
+      </c>
+      <c r="V32" t="s">
+        <v>713</v>
+      </c>
+      <c r="W32" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="O33" t="s">
+        <v>329</v>
+      </c>
+      <c r="P33" t="s">
+        <v>111</v>
+      </c>
+      <c r="V33" t="s">
+        <v>715</v>
+      </c>
+      <c r="W33" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>740</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="I34" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" t="s">
+        <v>330</v>
+      </c>
+      <c r="P34" t="s">
+        <v>111</v>
+      </c>
+      <c r="V34" t="s">
+        <v>716</v>
+      </c>
+      <c r="W34" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>691</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
-        <v>256</v>
+        <v>823</v>
       </c>
       <c r="I35" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" t="s">
+        <v>717</v>
+      </c>
+      <c r="W35" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG35" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>741</v>
+      </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="I36" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>792</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
       </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>812</v>
+      </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>734</v>
       </c>
       <c r="I37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" t="s">
-        <v>259</v>
-      </c>
-      <c r="I38" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="O38" s="28" t="s">
         <v>762</v>
       </c>
       <c r="U38" s="28" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>491</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>322</v>
+        <v>567</v>
       </c>
       <c r="I39" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="L39" s="75" t="s">
         <v>368</v>
@@ -12939,10 +13521,10 @@
       <c r="M39" t="s">
         <v>114</v>
       </c>
+      <c r="O39" t="s">
+        <v>369</v>
+      </c>
       <c r="P39" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q39" t="s">
         <v>114</v>
       </c>
       <c r="U39" t="s">
@@ -12951,19 +13533,28 @@
       <c r="V39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X39" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>779</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>323</v>
+        <v>828</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="L40" t="s">
         <v>376</v>
@@ -12971,10 +13562,10 @@
       <c r="M40" t="s">
         <v>763</v>
       </c>
+      <c r="O40" t="s">
+        <v>370</v>
+      </c>
       <c r="P40" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q40" t="s">
         <v>114</v>
       </c>
       <c r="U40" t="s">
@@ -12983,24 +13574,33 @@
       <c r="V40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X40" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>781</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>324</v>
+        <v>829</v>
       </c>
       <c r="I41" t="s">
-        <v>111</v>
+        <v>38</v>
+      </c>
+      <c r="O41" t="s">
+        <v>377</v>
       </c>
       <c r="P41" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q41" t="s">
         <v>11</v>
       </c>
       <c r="U41" t="s">
@@ -13009,19 +13609,37 @@
       <c r="V41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X41" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>325</v>
+        <v>830</v>
       </c>
       <c r="I42" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="L42" t="s">
         <v>502</v>
@@ -13029,10 +13647,10 @@
       <c r="M42" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="16" t="s">
+      <c r="O42" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="P42" t="s">
         <v>12</v>
       </c>
       <c r="U42" t="s">
@@ -13042,18 +13660,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>283</v>
-      </c>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>326</v>
+        <v>550</v>
       </c>
       <c r="I43" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s">
         <v>773</v>
@@ -13061,10 +13679,10 @@
       <c r="M43" t="s">
         <v>16</v>
       </c>
+      <c r="O43" t="s">
+        <v>425</v>
+      </c>
       <c r="P43" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q43" t="s">
         <v>85</v>
       </c>
       <c r="U43" t="s">
@@ -13074,29 +13692,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
       </c>
-      <c r="H44" t="s">
-        <v>327</v>
-      </c>
-      <c r="I44" t="s">
-        <v>111</v>
-      </c>
       <c r="L44" t="s">
         <v>503</v>
       </c>
       <c r="M44" t="s">
         <v>16</v>
       </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
       <c r="P44" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q44" t="s">
         <v>85</v>
       </c>
       <c r="U44" t="s">
@@ -13106,18 +13718,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s">
         <v>107</v>
       </c>
       <c r="H45" t="s">
-        <v>328</v>
+        <v>553</v>
       </c>
       <c r="I45" t="s">
-        <v>111</v>
+        <v>831</v>
       </c>
       <c r="L45" t="s">
         <v>31</v>
@@ -13125,10 +13737,10 @@
       <c r="M45" t="s">
         <v>16</v>
       </c>
+      <c r="O45" t="s">
+        <v>64</v>
+      </c>
       <c r="P45" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q45" t="s">
         <v>55</v>
       </c>
       <c r="U45" s="16" t="s">
@@ -13138,12 +13750,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>554</v>
       </c>
       <c r="I46" t="s">
-        <v>111</v>
+        <v>831</v>
       </c>
       <c r="U46" s="16" t="s">
         <v>390</v>
@@ -13152,17 +13773,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
       <c r="H47" t="s">
-        <v>330</v>
+        <v>555</v>
       </c>
       <c r="I47" t="s">
-        <v>111</v>
+        <v>38</v>
+      </c>
+      <c r="O47" t="s">
+        <v>421</v>
       </c>
       <c r="P47" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q47" t="s">
         <v>85</v>
       </c>
       <c r="U47" s="16" t="s">
@@ -13172,17 +13805,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
       <c r="H48" t="s">
-        <v>365</v>
+        <v>556</v>
       </c>
       <c r="I48" t="s">
-        <v>113</v>
+        <v>831</v>
+      </c>
+      <c r="O48" t="s">
+        <v>423</v>
       </c>
       <c r="P48" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q48" t="s">
         <v>778</v>
       </c>
       <c r="U48" t="s">
@@ -13192,17 +13831,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H49" s="16" t="s">
-        <v>387</v>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" t="s">
+        <v>557</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>831</v>
+      </c>
+      <c r="O49" t="s">
+        <v>424</v>
       </c>
       <c r="P49" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q49" t="s">
         <v>85</v>
       </c>
       <c r="U49" t="s">
@@ -13212,72 +13857,100 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>753</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>320</v>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" t="s">
+        <v>558</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>831</v>
+      </c>
+      <c r="O50" t="s">
+        <v>444</v>
       </c>
       <c r="P50" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q50" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U50" t="s">
+        <v>636</v>
+      </c>
+      <c r="V50" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>388</v>
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>559</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>831</v>
+      </c>
+      <c r="O51" t="s">
+        <v>445</v>
       </c>
       <c r="P51" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q51" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>637</v>
+      </c>
+      <c r="V51" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X51" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y51" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z51" s="22"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>632</v>
+        <v>781</v>
       </c>
       <c r="B52" t="s">
-        <v>743</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>162</v>
+        <v>87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>560</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>831</v>
       </c>
       <c r="L52" s="28" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>638</v>
+      </c>
+      <c r="V52" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X52" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y52" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>737</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>743</v>
-      </c>
-      <c r="H53" t="s">
-        <v>505</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s">
         <v>771</v>
@@ -13285,22 +13958,40 @@
       <c r="M53" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="16" t="s">
+      <c r="O53" s="16" t="s">
         <v>139</v>
       </c>
+      <c r="P53" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="Q53" s="22" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="R53" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="U53" t="s">
+        <v>639</v>
+      </c>
+      <c r="V53" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>438</v>
+      </c>
+      <c r="I54" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>336</v>
-      </c>
-      <c r="B54" t="s">
-        <v>743</v>
       </c>
       <c r="L54" t="s">
         <v>772</v>
@@ -13308,54 +13999,157 @@
       <c r="M54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O54" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U54" t="s">
+        <v>640</v>
+      </c>
+      <c r="V54" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>754</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="H55" t="s">
+        <v>428</v>
+      </c>
+      <c r="I55" t="s">
+        <v>778</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="P55" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>842</v>
+      </c>
+      <c r="U55" t="s">
+        <v>652</v>
+      </c>
+      <c r="V55" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="W55" t="s">
+        <v>844</v>
+      </c>
+      <c r="X55" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" t="s">
+        <v>430</v>
+      </c>
+      <c r="I56" t="s">
+        <v>778</v>
+      </c>
       <c r="L56" t="s">
         <v>498</v>
       </c>
       <c r="M56" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>650</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="U56" t="s">
+        <v>843</v>
+      </c>
+      <c r="V56" t="s">
+        <v>54</v>
+      </c>
+      <c r="X56" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z56" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" t="s">
+        <v>431</v>
+      </c>
+      <c r="I57" t="s">
+        <v>778</v>
+      </c>
       <c r="L57" t="s">
         <v>769</v>
       </c>
       <c r="M57" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X57" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z57" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>838</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>432</v>
+      </c>
+      <c r="I58" t="s">
+        <v>778</v>
+      </c>
       <c r="L58" t="s">
         <v>770</v>
       </c>
       <c r="M58" t="s">
         <v>768</v>
       </c>
+      <c r="O58" t="s">
+        <v>371</v>
+      </c>
       <c r="P58" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q58" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>450</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
+      <c r="X58" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z58" s="22"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>433</v>
+      </c>
+      <c r="I59" t="s">
+        <v>778</v>
       </c>
       <c r="L59" s="75" t="s">
         <v>31</v>
@@ -13363,36 +14157,100 @@
       <c r="M59" t="s">
         <v>16</v>
       </c>
+      <c r="O59" t="s">
+        <v>372</v>
+      </c>
       <c r="P59" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q59" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>449</v>
-      </c>
-      <c r="B60" t="s">
-        <v>86</v>
+      <c r="X59" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z59" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="H60" t="s">
+        <v>434</v>
+      </c>
+      <c r="I60" t="s">
+        <v>778</v>
+      </c>
+      <c r="O60" t="s">
+        <v>373</v>
       </c>
       <c r="P60" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q60" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X60" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z60" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>738</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>435</v>
+      </c>
+      <c r="I61" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>632</v>
+      </c>
+      <c r="B62" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>737</v>
+      </c>
+      <c r="B63" t="s">
+        <v>743</v>
+      </c>
+      <c r="H63" t="s">
+        <v>437</v>
+      </c>
+      <c r="I63" t="s">
+        <v>778</v>
+      </c>
       <c r="L63" s="28" t="s">
         <v>395</v>
       </c>
       <c r="O63" s="29" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U63" s="28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" t="s">
+        <v>743</v>
+      </c>
+      <c r="H64" t="s">
+        <v>439</v>
+      </c>
+      <c r="I64" t="s">
+        <v>778</v>
+      </c>
       <c r="L64" s="75" t="s">
         <v>392</v>
       </c>
@@ -13408,13 +14266,31 @@
       <c r="Q64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>535</v>
+      </c>
+      <c r="V64" t="s">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>800</v>
+        <v>754</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65" t="s">
+        <v>440</v>
+      </c>
+      <c r="I65" t="s">
+        <v>778</v>
       </c>
       <c r="L65" s="75" t="s">
         <v>393</v>
@@ -13429,18 +14305,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>799</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
+        <v>778</v>
       </c>
       <c r="L66" s="75" t="s">
         <v>394</v>
@@ -13458,9 +14328,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="I67" t="s">
         <v>778</v>
@@ -13477,10 +14347,13 @@
       <c r="P67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U67" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H68" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="I68" t="s">
         <v>778</v>
@@ -13491,149 +14364,785 @@
       <c r="P68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U68" s="75" t="s">
+        <v>537</v>
+      </c>
+      <c r="V68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="U69" t="s">
+        <v>538</v>
+      </c>
+      <c r="V69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="L70" t="s">
+        <v>662</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="U70" t="s">
+        <v>539</v>
+      </c>
+      <c r="V70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>663</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="O71" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="U71" t="s">
+        <v>540</v>
+      </c>
+      <c r="V71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>573</v>
+      </c>
+      <c r="I72" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" t="s">
+        <v>670</v>
+      </c>
+      <c r="P72" t="s">
+        <v>56</v>
+      </c>
+      <c r="U72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>810</v>
+      </c>
+      <c r="L73" t="s">
+        <v>664</v>
+      </c>
+      <c r="M73" t="s">
+        <v>845</v>
+      </c>
+      <c r="O73" t="s">
+        <v>380</v>
+      </c>
+      <c r="P73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H74" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s">
+        <v>810</v>
+      </c>
+      <c r="L74" t="s">
+        <v>665</v>
+      </c>
+      <c r="M74" t="s">
+        <v>845</v>
+      </c>
+      <c r="O74" t="s">
+        <v>379</v>
+      </c>
+      <c r="P74" t="s">
+        <v>56</v>
+      </c>
+      <c r="U74" s="28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>800</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>809</v>
+      </c>
+      <c r="I75" t="s">
+        <v>810</v>
+      </c>
+      <c r="L75" t="s">
+        <v>666</v>
+      </c>
+      <c r="M75" t="s">
+        <v>845</v>
+      </c>
+      <c r="O75" t="s">
+        <v>671</v>
+      </c>
+      <c r="P75" t="s">
+        <v>56</v>
+      </c>
+      <c r="U75" t="s">
+        <v>546</v>
+      </c>
+      <c r="V75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>799</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" t="s">
+        <v>667</v>
+      </c>
+      <c r="M76" t="s">
+        <v>845</v>
+      </c>
+      <c r="O76" t="s">
+        <v>672</v>
+      </c>
+      <c r="P76" t="s">
+        <v>56</v>
+      </c>
+      <c r="U76" t="s">
+        <v>543</v>
+      </c>
+      <c r="V76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>561</v>
+      </c>
+      <c r="I78" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>805</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" t="s">
+        <v>562</v>
+      </c>
+      <c r="I79" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>806</v>
+      </c>
+      <c r="B80" t="s">
+        <v>852</v>
+      </c>
+      <c r="H80" t="s">
+        <v>563</v>
+      </c>
+      <c r="I80" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>701</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" t="s">
+        <v>564</v>
+      </c>
+      <c r="I81" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>565</v>
+      </c>
+      <c r="I82" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>566</v>
+      </c>
+      <c r="I83" t="s">
+        <v>831</v>
+      </c>
+      <c r="K83" t="s">
+        <v>710</v>
+      </c>
+      <c r="L83" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>508</v>
+      </c>
+      <c r="R83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>532</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" t="s">
+        <v>567</v>
+      </c>
+      <c r="I84" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>513</v>
+      </c>
+      <c r="R84" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K85" t="s">
+        <v>524</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="N85" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>514</v>
+      </c>
+      <c r="R85" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>593</v>
+      </c>
+      <c r="B86" t="s">
+        <v>836</v>
+      </c>
+      <c r="K86" t="s">
+        <v>523</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="N86" t="s">
+        <v>526</v>
+      </c>
+      <c r="O86" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>515</v>
+      </c>
+      <c r="R86" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K87" t="s">
+        <v>230</v>
+      </c>
+      <c r="L87" t="s">
+        <v>34</v>
+      </c>
+      <c r="N87" t="s">
+        <v>258</v>
+      </c>
+      <c r="O87" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>832</v>
+      </c>
+      <c r="N88" t="s">
+        <v>527</v>
+      </c>
+      <c r="O88" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>516</v>
+      </c>
+      <c r="R88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>568</v>
+      </c>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>699</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" t="s">
+        <v>569</v>
+      </c>
+      <c r="I90" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>570</v>
+      </c>
+      <c r="I91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N92" t="s">
+        <v>600</v>
+      </c>
+      <c r="O92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N93" t="s">
+        <v>602</v>
+      </c>
+      <c r="O93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H94" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="N94" t="s">
+        <v>603</v>
+      </c>
+      <c r="O94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>575</v>
+      </c>
+      <c r="I95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>576</v>
+      </c>
+      <c r="I96" t="s">
+        <v>42</v>
+      </c>
+      <c r="N96" t="s">
+        <v>606</v>
+      </c>
+      <c r="O96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>577</v>
+      </c>
+      <c r="I97" t="s">
+        <v>42</v>
+      </c>
+      <c r="N97" t="s">
+        <v>612</v>
+      </c>
+      <c r="O97" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="98" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>508</v>
+      </c>
+      <c r="I98" t="s">
+        <v>42</v>
+      </c>
+      <c r="N98" t="s">
+        <v>613</v>
+      </c>
+      <c r="O98" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="99" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>579</v>
+      </c>
+      <c r="I99" t="s">
+        <v>42</v>
+      </c>
+      <c r="N99" t="s">
+        <v>607</v>
+      </c>
+      <c r="O99" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="100" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="N100" t="s">
+        <v>608</v>
+      </c>
+      <c r="O100" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="101" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="N101" t="s">
+        <v>609</v>
+      </c>
+      <c r="O101" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="102" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>581</v>
+      </c>
+      <c r="I102" t="s">
+        <v>810</v>
+      </c>
+      <c r="N102" t="s">
+        <v>610</v>
+      </c>
+      <c r="O102" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="103" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>567</v>
+      </c>
+      <c r="I103" t="s">
+        <v>810</v>
+      </c>
+      <c r="N103" t="s">
+        <v>611</v>
+      </c>
+      <c r="O103" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="104" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>582</v>
+      </c>
+      <c r="I104" t="s">
+        <v>810</v>
+      </c>
+      <c r="N104" t="s">
+        <v>614</v>
+      </c>
+      <c r="O104" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="105" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>583</v>
+      </c>
+      <c r="I105" t="s">
+        <v>810</v>
+      </c>
+      <c r="N105" t="s">
+        <v>615</v>
+      </c>
+      <c r="O105" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="106" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="N106" t="s">
+        <v>616</v>
+      </c>
+      <c r="O106" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="107" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>567</v>
+      </c>
+      <c r="I107" t="s">
+        <v>44</v>
+      </c>
+      <c r="N107" t="s">
+        <v>617</v>
+      </c>
+      <c r="O107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="108" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>590</v>
+      </c>
+      <c r="I108" t="s">
+        <v>834</v>
+      </c>
+      <c r="N108" t="s">
+        <v>618</v>
+      </c>
+      <c r="O108" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="109" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>591</v>
+      </c>
+      <c r="I109" t="s">
+        <v>834</v>
+      </c>
+      <c r="N109" t="s">
+        <v>619</v>
+      </c>
+      <c r="O109" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="110" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>429</v>
+      </c>
+      <c r="I110" t="s">
+        <v>834</v>
+      </c>
+      <c r="N110" t="s">
+        <v>620</v>
+      </c>
+      <c r="O110" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="111" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="N111" t="s">
+        <v>621</v>
+      </c>
+      <c r="O111" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="112" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="N112" t="s">
+        <v>622</v>
+      </c>
+      <c r="O112" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="113" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H113" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="I113" t="s">
+        <v>47</v>
+      </c>
+      <c r="N113" t="s">
+        <v>623</v>
+      </c>
+      <c r="O113" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="114" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>592</v>
+      </c>
+      <c r="I114" t="s">
+        <v>46</v>
+      </c>
+      <c r="N114" t="s">
+        <v>624</v>
+      </c>
+      <c r="O114" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="115" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>594</v>
+      </c>
+      <c r="I115" t="s">
+        <v>46</v>
+      </c>
+      <c r="N115" t="s">
+        <v>625</v>
+      </c>
+      <c r="O115" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="117" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H117" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="I117" t="s">
+        <v>46</v>
+      </c>
+      <c r="N117" t="s">
+        <v>626</v>
+      </c>
+      <c r="O117" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="120" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>647</v>
+      </c>
+      <c r="I120" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="121" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>648</v>
+      </c>
+      <c r="I121" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="122" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>649</v>
+      </c>
+      <c r="I122" t="s">
+        <v>841</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A014542-9C11-424B-A7A8-C7851C1B4E2C}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="82" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="I1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="82" t="s">
+        <v>818</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="I2" s="82" t="s">
+        <v>816</v>
+      </c>
+      <c r="J2" s="82"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>813</v>
       </c>
-      <c r="H69" t="s">
-        <v>431</v>
-      </c>
-      <c r="I69" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>806</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C3" s="82"/>
+      <c r="I3" s="82" t="s">
+        <v>817</v>
+      </c>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="82" t="s">
+        <v>815</v>
+      </c>
+      <c r="C4" s="82"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="82" t="s">
+        <v>858</v>
+      </c>
+      <c r="C5" s="82"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="82" t="s">
         <v>814</v>
       </c>
-      <c r="H70" t="s">
-        <v>432</v>
-      </c>
-      <c r="I70" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H71" t="s">
-        <v>433</v>
-      </c>
-      <c r="I71" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H72" t="s">
-        <v>434</v>
-      </c>
-      <c r="I72" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H73" t="s">
-        <v>435</v>
-      </c>
-      <c r="I73" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H76" t="s">
-        <v>437</v>
-      </c>
-      <c r="I76" t="s">
-        <v>778</v>
-      </c>
-      <c r="M76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H77" t="s">
-        <v>439</v>
-      </c>
-      <c r="I77" t="s">
-        <v>778</v>
-      </c>
-      <c r="M77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H78" t="s">
-        <v>440</v>
-      </c>
-      <c r="I78" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H79" t="s">
-        <v>441</v>
-      </c>
-      <c r="I79" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H80" t="s">
-        <v>442</v>
-      </c>
-      <c r="I80" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H81" t="s">
-        <v>443</v>
-      </c>
-      <c r="I81" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H85" t="s">
-        <v>573</v>
-      </c>
-      <c r="I85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H86" t="s">
-        <v>43</v>
-      </c>
-      <c r="I86" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H87" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="I87" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H88" t="s">
-        <v>809</v>
-      </c>
-      <c r="I88" t="s">
-        <v>810</v>
-      </c>
+      <c r="C6" s="82"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
